--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H2">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I2">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J2">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>122.4771730986553</v>
+        <v>1118.544115377904</v>
       </c>
       <c r="R2">
-        <v>1102.294557887898</v>
+        <v>10066.89703840114</v>
       </c>
       <c r="S2">
-        <v>0.002385982919288145</v>
+        <v>0.01733540305309967</v>
       </c>
       <c r="T2">
-        <v>0.002385982919288145</v>
+        <v>0.01733540305309966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H3">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I3">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J3">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>188.1621352511342</v>
+        <v>921.1286054106561</v>
       </c>
       <c r="R3">
-        <v>1693.459217260208</v>
+        <v>8290.157448695905</v>
       </c>
       <c r="S3">
-        <v>0.00366559440757472</v>
+        <v>0.01427582105971603</v>
       </c>
       <c r="T3">
-        <v>0.00366559440757472</v>
+        <v>0.01427582105971603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H4">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I4">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J4">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>94.02330344131022</v>
+        <v>531.4282566920801</v>
       </c>
       <c r="R4">
-        <v>846.2097309717919</v>
+        <v>4782.85431022872</v>
       </c>
       <c r="S4">
-        <v>0.001831671897303739</v>
+        <v>0.008236173161977462</v>
       </c>
       <c r="T4">
-        <v>0.001831671897303739</v>
+        <v>0.00823617316197746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H5">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I5">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J5">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>149.6547980301722</v>
+        <v>537.1435920173242</v>
       </c>
       <c r="R5">
-        <v>1346.89318227155</v>
+        <v>4834.292328155917</v>
       </c>
       <c r="S5">
-        <v>0.002915431364519535</v>
+        <v>0.008324750483233362</v>
       </c>
       <c r="T5">
-        <v>0.002915431364519535</v>
+        <v>0.00832475048323336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H6">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I6">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J6">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>75.17485769775865</v>
+        <v>404.593439239052</v>
       </c>
       <c r="R6">
-        <v>676.573719279828</v>
+        <v>3641.340953151469</v>
       </c>
       <c r="S6">
-        <v>0.001464484539354038</v>
+        <v>0.006270463762154899</v>
       </c>
       <c r="T6">
-        <v>0.001464484539354038</v>
+        <v>0.006270463762154898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H7">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I7">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J7">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>98.68743359405111</v>
+        <v>676.9197679183161</v>
       </c>
       <c r="R7">
-        <v>888.1869023464601</v>
+        <v>6092.277911264845</v>
       </c>
       <c r="S7">
-        <v>0.001922534011412239</v>
+        <v>0.01049102744375003</v>
       </c>
       <c r="T7">
-        <v>0.001922534011412239</v>
+        <v>0.01049102744375003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>156.515103</v>
       </c>
       <c r="I8">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J8">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>4945.869481216551</v>
+        <v>9226.831258400565</v>
       </c>
       <c r="R8">
-        <v>44512.82533094896</v>
+        <v>83041.48132560508</v>
       </c>
       <c r="S8">
-        <v>0.09635068972163247</v>
+        <v>0.142999133041143</v>
       </c>
       <c r="T8">
-        <v>0.09635068972163245</v>
+        <v>0.142999133041143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>156.515103</v>
       </c>
       <c r="I9">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J9">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>7598.357626277896</v>
@@ -1013,10 +1013,10 @@
         <v>68385.21863650107</v>
       </c>
       <c r="S9">
-        <v>0.1480239219461616</v>
+        <v>0.117760748263933</v>
       </c>
       <c r="T9">
-        <v>0.1480239219461616</v>
+        <v>0.1177607482639329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>156.515103</v>
       </c>
       <c r="I10">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J10">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>3796.846181606104</v>
+        <v>4383.73308931778</v>
       </c>
       <c r="R10">
-        <v>34171.61563445494</v>
+        <v>39453.59780386002</v>
       </c>
       <c r="S10">
-        <v>0.07396651888086435</v>
+        <v>0.06793990414482552</v>
       </c>
       <c r="T10">
-        <v>0.07396651888086433</v>
+        <v>0.06793990414482551</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>156.515103</v>
       </c>
       <c r="I11">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J11">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>6043.355505101726</v>
+        <v>4430.87869037741</v>
       </c>
       <c r="R11">
-        <v>54390.19954591553</v>
+        <v>39877.90821339669</v>
       </c>
       <c r="S11">
-        <v>0.1177308607436908</v>
+        <v>0.06867057536763484</v>
       </c>
       <c r="T11">
-        <v>0.1177308607436907</v>
+        <v>0.06867057536763482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>156.515103</v>
       </c>
       <c r="I12">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J12">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>3035.708818513086</v>
+        <v>3337.477119401257</v>
       </c>
       <c r="R12">
-        <v>27321.37936661777</v>
+        <v>30037.29407461132</v>
       </c>
       <c r="S12">
-        <v>0.05913877015327798</v>
+        <v>0.05172483610605898</v>
       </c>
       <c r="T12">
-        <v>0.05913877015327798</v>
+        <v>0.05172483610605898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>156.515103</v>
       </c>
       <c r="I13">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J13">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>3985.192943661771</v>
+        <v>5583.887473180082</v>
       </c>
       <c r="R13">
-        <v>35866.73649295593</v>
+        <v>50254.98725862073</v>
       </c>
       <c r="S13">
-        <v>0.07763571001092139</v>
+        <v>0.08654011819464724</v>
       </c>
       <c r="T13">
-        <v>0.07763571001092139</v>
+        <v>0.08654011819464723</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H14">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I14">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J14">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>339.659049746857</v>
+        <v>1061.931914446017</v>
       </c>
       <c r="R14">
-        <v>3056.931447721713</v>
+        <v>9557.387230014156</v>
       </c>
       <c r="S14">
-        <v>0.006616912119818845</v>
+        <v>0.01645801671903831</v>
       </c>
       <c r="T14">
-        <v>0.006616912119818845</v>
+        <v>0.0164580167190383</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H15">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I15">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J15">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>521.8194577879386</v>
+        <v>874.5080770142425</v>
       </c>
       <c r="R15">
-        <v>4696.375120091448</v>
+        <v>7870.572693128183</v>
       </c>
       <c r="S15">
-        <v>0.0101655866292026</v>
+        <v>0.01355328750990851</v>
       </c>
       <c r="T15">
-        <v>0.0101655866292026</v>
+        <v>0.01355328750990851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H16">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I16">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J16">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>260.7495347333947</v>
+        <v>504.5313977885133</v>
       </c>
       <c r="R16">
-        <v>2346.745812600552</v>
+        <v>4540.78258009662</v>
       </c>
       <c r="S16">
-        <v>0.005079672565475314</v>
+        <v>0.007819320680662363</v>
       </c>
       <c r="T16">
-        <v>0.005079672565475313</v>
+        <v>0.007819320680662363</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H17">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I17">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J17">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>415.0292271037417</v>
+        <v>509.9574662825457</v>
       </c>
       <c r="R17">
-        <v>3735.263043933675</v>
+        <v>4589.617196542911</v>
       </c>
       <c r="S17">
-        <v>0.008085201689601701</v>
+        <v>0.007903414891203176</v>
       </c>
       <c r="T17">
-        <v>0.008085201689601701</v>
+        <v>0.007903414891203176</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H18">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I18">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J18">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>208.478201157602</v>
+        <v>384.1159947082337</v>
       </c>
       <c r="R18">
-        <v>1876.303810418418</v>
+        <v>3457.043952374103</v>
       </c>
       <c r="S18">
-        <v>0.004061372535152164</v>
+        <v>0.005953100549064912</v>
       </c>
       <c r="T18">
-        <v>0.004061372535152164</v>
+        <v>0.005953100549064911</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H19">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I19">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J19">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>273.6843043357234</v>
+        <v>642.6592346149777</v>
       </c>
       <c r="R19">
-        <v>2463.15873902151</v>
+        <v>5783.9331115348</v>
       </c>
       <c r="S19">
-        <v>0.005331655351779699</v>
+        <v>0.009960051378110584</v>
       </c>
       <c r="T19">
-        <v>0.005331655351779699</v>
+        <v>0.009960051378110582</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H20">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I20">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J20">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>2362.133986157414</v>
+        <v>3671.700053415262</v>
       </c>
       <c r="R20">
-        <v>21259.20587541673</v>
+        <v>33045.30048073735</v>
       </c>
       <c r="S20">
-        <v>0.0460168307403846</v>
+        <v>0.0569046847960365</v>
       </c>
       <c r="T20">
-        <v>0.04601683074038461</v>
+        <v>0.0569046847960365</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H21">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I21">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J21">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>3628.955203159665</v>
+        <v>3023.669699916998</v>
       </c>
       <c r="R21">
-        <v>32660.59682843698</v>
+        <v>27213.02729925298</v>
       </c>
       <c r="S21">
-        <v>0.07069582772478165</v>
+        <v>0.04686139082658975</v>
       </c>
       <c r="T21">
-        <v>0.07069582772478167</v>
+        <v>0.04686139082658974</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H22">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I22">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J22">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>1813.363543022113</v>
+        <v>1744.450783528958</v>
       </c>
       <c r="R22">
-        <v>16320.27188719902</v>
+        <v>15700.05705176062</v>
       </c>
       <c r="S22">
-        <v>0.03532621084114568</v>
+        <v>0.02703582006557966</v>
       </c>
       <c r="T22">
-        <v>0.03532621084114568</v>
+        <v>0.02703582006557966</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H23">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I23">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J23">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>2886.290364767364</v>
+        <v>1763.211775366902</v>
       </c>
       <c r="R23">
-        <v>25976.61328290628</v>
+        <v>15868.90597830211</v>
       </c>
       <c r="S23">
-        <v>0.05622794302162488</v>
+        <v>0.02732658137817822</v>
       </c>
       <c r="T23">
-        <v>0.05622794302162488</v>
+        <v>0.02732658137817821</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H24">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I24">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J24">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>1449.846381818332</v>
+        <v>1328.106537812856</v>
       </c>
       <c r="R24">
-        <v>13048.61743636499</v>
+        <v>11952.9588403157</v>
       </c>
       <c r="S24">
-        <v>0.0282445178565951</v>
+        <v>0.02058324013681312</v>
       </c>
       <c r="T24">
-        <v>0.0282445178565951</v>
+        <v>0.02058324013681312</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H25">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I25">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J25">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>1903.317450929314</v>
+        <v>2222.036944143067</v>
       </c>
       <c r="R25">
-        <v>17129.85705836383</v>
+        <v>19998.3324972876</v>
       </c>
       <c r="S25">
-        <v>0.03707860667426079</v>
+        <v>0.03443753848956049</v>
       </c>
       <c r="T25">
-        <v>0.0370786066742608</v>
+        <v>0.03443753848956049</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H26">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I26">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J26">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>645.7760162128939</v>
+        <v>1256.598619197083</v>
       </c>
       <c r="R26">
-        <v>5811.984145916045</v>
+        <v>11309.38757277374</v>
       </c>
       <c r="S26">
-        <v>0.01258038951575725</v>
+        <v>0.01947499722207223</v>
       </c>
       <c r="T26">
-        <v>0.01258038951575725</v>
+        <v>0.01947499722207223</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H27">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I27">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J27">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>992.1080886371572</v>
+        <v>1034.817418239157</v>
       </c>
       <c r="R27">
-        <v>8928.972797734416</v>
+        <v>9313.356764152415</v>
       </c>
       <c r="S27">
-        <v>0.01932729906877525</v>
+        <v>0.01603779125464627</v>
       </c>
       <c r="T27">
-        <v>0.01932729906877525</v>
+        <v>0.01603779125464627</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H28">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I28">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J28">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>495.7494755255093</v>
+        <v>597.0189323609867</v>
       </c>
       <c r="R28">
-        <v>4461.745279729584</v>
+        <v>5373.17039124888</v>
       </c>
       <c r="S28">
-        <v>0.009657716217022223</v>
+        <v>0.009252709553893913</v>
       </c>
       <c r="T28">
-        <v>0.009657716217022222</v>
+        <v>0.009252709553893913</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H29">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I29">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J29">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>789.0733990179833</v>
+        <v>603.4396737329295</v>
       </c>
       <c r="R29">
-        <v>7101.66059116185</v>
+        <v>5430.957063596365</v>
       </c>
       <c r="S29">
-        <v>0.01537197180902453</v>
+        <v>0.009352219388197349</v>
       </c>
       <c r="T29">
-        <v>0.01537197180902453</v>
+        <v>0.009352219388197349</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H30">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I30">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J30">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>396.3687183106839</v>
+        <v>454.5297320814414</v>
       </c>
       <c r="R30">
-        <v>3567.318464796156</v>
+        <v>4090.767588732972</v>
       </c>
       <c r="S30">
-        <v>0.007721675539225923</v>
+        <v>0.007044385641050095</v>
       </c>
       <c r="T30">
-        <v>0.007721675539225922</v>
+        <v>0.007044385641050095</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H31">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I31">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J31">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>520.3416775900466</v>
+        <v>760.4674987592973</v>
       </c>
       <c r="R31">
-        <v>4683.075098310421</v>
+        <v>6844.207488833677</v>
       </c>
       <c r="S31">
-        <v>0.01013679793150958</v>
+        <v>0.01178586558950432</v>
       </c>
       <c r="T31">
-        <v>0.01013679793150958</v>
+        <v>0.01178586558950432</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H32">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I32">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J32">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>217.9325018684196</v>
+        <v>890.351697245748</v>
       </c>
       <c r="R32">
-        <v>1961.392516815777</v>
+        <v>8013.165275211732</v>
       </c>
       <c r="S32">
-        <v>0.004245552161764337</v>
+        <v>0.01379883485914346</v>
       </c>
       <c r="T32">
-        <v>0.004245552161764337</v>
+        <v>0.01379883485914346</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H33">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I33">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J33">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>334.810510846399</v>
+        <v>733.2106136304719</v>
       </c>
       <c r="R33">
-        <v>3013.294597617592</v>
+        <v>6598.895522674247</v>
       </c>
       <c r="S33">
-        <v>0.006522457531201926</v>
+        <v>0.01136343335533125</v>
       </c>
       <c r="T33">
-        <v>0.006522457531201927</v>
+        <v>0.01136343335533125</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H34">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I34">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J34">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>167.3024714278231</v>
+        <v>423.01241748546</v>
       </c>
       <c r="R34">
-        <v>1505.722242850408</v>
+        <v>3807.11175736914</v>
       </c>
       <c r="S34">
-        <v>0.003259226426298546</v>
+        <v>0.006555924485015954</v>
       </c>
       <c r="T34">
-        <v>0.003259226426298546</v>
+        <v>0.006555924485015953</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H35">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I35">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J35">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>266.2916176637861</v>
+        <v>427.561776278913</v>
       </c>
       <c r="R35">
-        <v>2396.624558974075</v>
+        <v>3848.055986510217</v>
       </c>
       <c r="S35">
-        <v>0.005187638114276322</v>
+        <v>0.006626431286878684</v>
       </c>
       <c r="T35">
-        <v>0.005187638114276322</v>
+        <v>0.006626431286878683</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H36">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I36">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J36">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>133.7640672231913</v>
+        <v>322.052970793449</v>
       </c>
       <c r="R36">
-        <v>1203.876605008722</v>
+        <v>2898.476737141041</v>
       </c>
       <c r="S36">
-        <v>0.00260586337465483</v>
+        <v>0.00499123635482751</v>
       </c>
       <c r="T36">
-        <v>0.00260586337465483</v>
+        <v>0.004991236354827509</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H37">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I37">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J37">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>175.6016959078655</v>
+        <v>538.822435324017</v>
       </c>
       <c r="R37">
-        <v>1580.41526317079</v>
+        <v>4849.401917916153</v>
       </c>
       <c r="S37">
-        <v>0.003420903964665381</v>
+        <v>0.008350769506519437</v>
       </c>
       <c r="T37">
-        <v>0.003420903964665381</v>
+        <v>0.008350769506519435</v>
       </c>
     </row>
   </sheetData>
